--- a/i2c_bom/Elektronik.xlsx
+++ b/i2c_bom/Elektronik.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\i2C Materialliste\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Documents\GitHub\fiberprinter-electronics\i2c_bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531E59CD-7D01-40DD-8248-D4B02407F881}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF4A0BB-1B76-4233-8109-B8EF15BE1D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DifI2C!$A$1:$P$38</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -944,7 +949,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2237,7 +2242,7 @@
 </file>
 
 <file path=xl/namedSheetViews/namedSheetView1.xml><?xml version="1.0" encoding="utf-8"?>
-<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<namedSheetViews xmlns="http://schemas.microsoft.com/office/spreadsheetml/2019/namedsheetviews" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <namedSheetView name="Bestellung" id="{C32C2E73-5DC3-4EDB-B2DD-0E583AA996A3}"/>
   <namedSheetView name="Technische Sicht" id="{EF2C38C1-BA21-4C2A-9C8F-967CA0EFCBED}"/>
 </namedSheetViews>
@@ -2598,10 +2603,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -2624,7 +2629,7 @@
     <col min="19" max="24" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>243.05999999999995</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="45"/>
       <c r="B2" s="2" t="s">
         <v>17</v>
@@ -2740,7 +2745,7 @@
         <v>9.91</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="45"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -2781,7 +2786,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="2" t="s">
         <v>31</v>
@@ -2828,7 +2833,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
       <c r="B5" s="2" t="s">
         <v>163</v>
@@ -2876,7 +2881,7 @@
         <v>17.059999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>142</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>142</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>142</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>156</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
       <c r="B10" s="27" t="s">
         <v>296</v>
@@ -3111,7 +3116,7 @@
       <c r="O10" s="56"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>160</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>160</v>
       </c>
@@ -3203,7 +3208,7 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="24"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
       <c r="B13" s="2" t="s">
         <v>48</v>
@@ -3253,7 +3258,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
       <c r="B14" s="2" t="s">
         <v>55</v>
@@ -3303,7 +3308,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
       <c r="B15" s="2" t="s">
         <v>60</v>
@@ -3353,7 +3358,7 @@
         <v>2.78</v>
       </c>
     </row>
-    <row r="16" spans="1:25" hidden="1">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>65</v>
       </c>
@@ -3404,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>71</v>
       </c>
@@ -3453,7 +3458,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="2" t="s">
         <v>75</v>
@@ -3500,7 +3505,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>132</v>
       </c>
@@ -3549,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>138</v>
       </c>
@@ -3598,7 +3603,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
       <c r="B21" s="2" t="s">
         <v>79</v>
@@ -3645,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
       <c r="B22" s="2" t="s">
         <v>85</v>
@@ -3692,7 +3697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
       <c r="B23" s="2" t="s">
         <v>88</v>
@@ -3740,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
       <c r="B24" s="2" t="s">
         <v>92</v>
@@ -3787,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
       <c r="B25" s="2" t="s">
         <v>88</v>
@@ -3835,7 +3840,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
       <c r="B26" s="2" t="s">
         <v>36</v>
@@ -3883,7 +3888,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
       <c r="B27" s="2" t="s">
         <v>41</v>
@@ -3931,7 +3936,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="2" t="s">
         <v>45</v>
@@ -3979,7 +3984,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="2" t="s">
         <v>171</v>
@@ -4026,7 +4031,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>117</v>
       </c>
@@ -4076,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>123</v>
       </c>
@@ -4126,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>128</v>
       </c>
@@ -4176,7 +4181,7 @@
         <v>11.24</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
       <c r="B33" s="2" t="s">
         <v>167</v>
@@ -4223,7 +4228,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>95</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>103</v>
       </c>
@@ -4323,7 +4328,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>108</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>108</v>
       </c>
@@ -4413,7 +4418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:18" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>108</v>
       </c>
@@ -4462,8 +4467,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" thickBot="1"/>
-    <row r="40" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E40" s="38" t="s">
         <v>179</v>
       </c>
@@ -4480,10 +4485,10 @@
         <v>189.16</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="15" customHeight="1" thickBot="1">
+    <row r="42" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:18" ht="15" customHeight="1">
+    <row r="43" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="L43" s="61" t="s">
         <v>293</v>
@@ -4494,35 +4499,35 @@
         <v>100.82999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15" customHeight="1">
+    <row r="44" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:18" ht="15" customHeight="1">
+    <row r="45" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:18" ht="15" customHeight="1">
+    <row r="47" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:18" ht="15" customHeight="1">
+    <row r="48" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="7:11" ht="15" customHeight="1">
+    <row r="49" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="K49" s="23"/>
     </row>
-    <row r="50" spans="7:11" ht="15" customHeight="1">
+    <row r="50" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="7:11" ht="15" customHeight="1">
+    <row r="51" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="7:11" ht="15" customHeight="1">
+    <row r="52" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="7:11" ht="15" customHeight="1">
+    <row r="53" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>182</v>
@@ -4622,7 +4627,7 @@
       <selection activeCell="I4" sqref="I4:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
@@ -4630,7 +4635,7 @@
     <col min="4" max="4" width="61.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>183</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="32" customFormat="1">
+    <row r="2" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>189</v>
       </c>
@@ -4668,7 +4673,7 @@
       </c>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" s="28" customFormat="1">
+    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>193</v>
       </c>
@@ -4685,7 +4690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1">
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>197</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="32" customFormat="1">
+    <row r="5" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>199</v>
       </c>
@@ -4720,7 +4725,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1">
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>203</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1">
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>206</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1">
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>209</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1">
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>211</v>
       </c>
@@ -4788,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1">
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>213</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1">
+    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>215</v>
       </c>
@@ -4822,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1">
+    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>218</v>
       </c>
@@ -4836,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1">
+    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>220</v>
       </c>
@@ -4853,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1">
+    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>223</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1">
+    <row r="15" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>224</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1">
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>225</v>
       </c>
@@ -4920,7 +4925,7 @@
       <selection activeCell="C31" sqref="C31:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
@@ -4928,7 +4933,7 @@
     <col min="4" max="4" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>183</v>
       </c>
@@ -4948,7 +4953,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="28" customFormat="1">
+    <row r="2" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>229</v>
       </c>
@@ -4966,7 +4971,7 @@
       </c>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" s="28" customFormat="1">
+    <row r="3" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>232</v>
       </c>
@@ -4984,7 +4989,7 @@
       </c>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" s="28" customFormat="1">
+    <row r="4" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>235</v>
       </c>
@@ -5002,7 +5007,7 @@
       </c>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" s="28" customFormat="1">
+    <row r="5" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>237</v>
       </c>
@@ -5020,7 +5025,7 @@
       </c>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" s="28" customFormat="1">
+    <row r="6" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>239</v>
       </c>
@@ -5038,7 +5043,7 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" s="28" customFormat="1">
+    <row r="7" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>242</v>
       </c>
@@ -5056,7 +5061,7 @@
       </c>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" s="28" customFormat="1">
+    <row r="8" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>244</v>
       </c>
@@ -5074,7 +5079,7 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" s="28" customFormat="1">
+    <row r="9" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>246</v>
       </c>
@@ -5092,7 +5097,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6" s="28" customFormat="1">
+    <row r="10" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>193</v>
       </c>
@@ -5110,7 +5115,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6" s="28" customFormat="1">
+    <row r="11" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>203</v>
       </c>
@@ -5128,7 +5133,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1">
+    <row r="12" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>206</v>
       </c>
@@ -5146,7 +5151,7 @@
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1">
+    <row r="13" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>255</v>
       </c>
@@ -5164,7 +5169,7 @@
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" s="28" customFormat="1">
+    <row r="14" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>257</v>
       </c>
@@ -5182,7 +5187,7 @@
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" s="28" customFormat="1">
+    <row r="15" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>209</v>
       </c>
@@ -5200,7 +5205,7 @@
       </c>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:6" s="28" customFormat="1">
+    <row r="16" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>211</v>
       </c>
@@ -5218,7 +5223,7 @@
       </c>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" s="28" customFormat="1">
+    <row r="17" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>213</v>
       </c>
@@ -5236,7 +5241,7 @@
       </c>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="1:6" s="28" customFormat="1">
+    <row r="18" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>262</v>
       </c>
@@ -5254,7 +5259,7 @@
       </c>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:6" s="32" customFormat="1">
+    <row r="19" spans="1:6" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>264</v>
       </c>
@@ -5272,7 +5277,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" s="28" customFormat="1">
+    <row r="20" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>267</v>
       </c>
@@ -5290,7 +5295,7 @@
       </c>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6" s="28" customFormat="1">
+    <row r="21" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>270</v>
       </c>
@@ -5306,7 +5311,7 @@
       </c>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" s="28" customFormat="1">
+    <row r="22" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>273</v>
       </c>
@@ -5324,7 +5329,7 @@
       </c>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6" s="28" customFormat="1">
+    <row r="23" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>275</v>
       </c>
@@ -5342,7 +5347,7 @@
       </c>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:6" s="28" customFormat="1">
+    <row r="24" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>276</v>
       </c>
@@ -5360,7 +5365,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" s="28" customFormat="1">
+    <row r="25" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>277</v>
       </c>
@@ -5378,7 +5383,7 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:6" s="28" customFormat="1">
+    <row r="26" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>278</v>
       </c>
@@ -5396,7 +5401,7 @@
       </c>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6" s="28" customFormat="1">
+    <row r="27" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>279</v>
       </c>
@@ -5414,7 +5419,7 @@
       </c>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6" s="28" customFormat="1">
+    <row r="28" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>225</v>
       </c>
@@ -5432,7 +5437,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" s="28" customFormat="1">
+    <row r="29" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>280</v>
       </c>
@@ -5450,7 +5455,7 @@
       </c>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" s="28" customFormat="1">
+    <row r="30" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>282</v>
       </c>
@@ -5468,7 +5473,7 @@
       </c>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" s="28" customFormat="1">
+    <row r="31" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>285</v>
       </c>
@@ -5486,7 +5491,7 @@
       </c>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6" s="28" customFormat="1">
+    <row r="32" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>288</v>
       </c>
